--- a/biology/Botanique/Talinum/Talinum.xlsx
+++ b/biology/Botanique/Talinum/Talinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Talinum est un genre de plantes dicotylédones de la famille des Talinaceae (anciennement classé chez les Portulacaceae), originaire des régions tropicales d'Amérique, d'Afrique et d'Asie, qui compte une trentaine d'espèces acceptées.
 Ce sont des plantes herbacées, succulentes, annuelles ou vivaces, pouvant atteindre 1,5 mètre de haut.
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste d'espèces
-Selon Plants of the World online (POWO)                (23 novembre 2021)[2] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (23 novembre 2021) :
 Talinum albiflorum (Appleq.) Christenh. &amp; Byng
 Talinum ankaranense (Appleq.) Christenh. &amp; Byng
 Talinum arnotii Hook.f.
@@ -545,8 +562,43 @@
 Talinum tsitondroinense (Appleq.) Christenh. &amp; Byng
 Talinum tuberosum (Benth.) P.Wilson
 Talinum xerophilum (Appleq.) Christenh. &amp; Byng
-Synonymes
-Selon Plants of the World online (POWO)                (23 novembre 2021)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Talinum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Talinum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (23 novembre 2021) :
 Orygia Forssk.
 Chromanthus Phil.
 Eutmon Raf.
